--- a/data/MSC/dgeo/PlanoCurso_9149_Engenharia Geológica.xlsx
+++ b/data/MSC/dgeo/PlanoCurso_9149_Engenharia Geológica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Library/CloudStorage/Dropbox/Toze/continUA/CE/levantamento CE/MSC/dgeo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/rita_almeida_ua_pt/Documents/Documents/Levantamento UCs Mestrado + CE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE389CC0-4090-4F43-977E-63D81C7AB17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{427ADDB9-1391-4370-BAF4-7E11785F4AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5A35FCF-2DB1-45C9-8C43-65E2D9105518}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{07AD4E9E-BD3F-41B8-95BB-2C9B815839F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{07AD4E9E-BD3F-41B8-95BB-2C9B815839F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulta" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="113">
   <si>
     <t>DETEÇÃO REMOTA E SIG</t>
   </si>
@@ -279,6 +279,9 @@
     <t>Nº Total de Páginas: 1   (Num. Máx. Registos por Página: 150000)</t>
   </si>
   <si>
+    <t>Ramo - Geotecnia</t>
+  </si>
+  <si>
     <t>RECURSOS MINERAIS E ENERGÉTICOS</t>
   </si>
   <si>
@@ -370,6 +373,9 @@
   </si>
   <si>
     <t>GEOPHYSICS APPLIED TO HYDROCARBON PROSPECTING</t>
+  </si>
+  <si>
+    <t>Ramo - Georecurssos e Geoambiente</t>
   </si>
 </sst>
 </file>
@@ -422,12 +428,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -442,13 +454,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +482,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -783,236 +798,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F808123-38DE-4D25-A0DE-51FDE2B47DD5}">
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>40329</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>47475</v>
-      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1045,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1072,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="W3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1090,15 +1024,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>47583</v>
+        <v>47475</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1131,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1158,13 +1092,13 @@
         <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1176,15 +1110,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>47623</v>
+        <v>47583</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1214,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -1262,15 +1196,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>47672</v>
+        <v>47623</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1300,13 +1234,13 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1348,36 +1282,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>42691</v>
+        <v>47672</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1389,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1434,15 +1368,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>47603</v>
+        <v>42691</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1481,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1520,15 +1454,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>47670</v>
+        <v>47603</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1606,15 +1540,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>47719</v>
+        <v>47670</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1647,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1692,15 +1626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>49720</v>
+        <v>47719</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1733,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1757,7 +1691,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="W11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>8</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1769,36 +1712,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>49991</v>
+        <v>49720</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1846,36 +1789,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>47606</v>
+        <v>49991</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1887,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1911,16 +1854,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" t="s">
-        <v>39</v>
-      </c>
-      <c r="X13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1932,36 +1866,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>47595</v>
+        <v>47606</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2018,36 +1952,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>40329</v>
+        <v>47595</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2059,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2086,1854 +2020,2097 @@
         <v>5</v>
       </c>
       <c r="W15" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE18" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>40329</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>47475</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>6</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
         <v>3</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="Z20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>47583</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W17" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="W21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="Z21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>47623</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>6</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>2</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0</v>
+      </c>
+      <c r="V22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W18" t="s">
-        <v>6</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="W22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="Z22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>47672</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <v>6</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>6</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
         <v>3</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0</v>
+      </c>
+      <c r="V23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W19" t="s">
-        <v>6</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="W23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="Z23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>42691</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="G24" s="7">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>6</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2</v>
+      </c>
+      <c r="P24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7">
+        <v>0</v>
+      </c>
+      <c r="U24" s="7">
+        <v>0</v>
+      </c>
+      <c r="V24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W20" t="s">
-        <v>6</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="W24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="Z24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>47603</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="G25" s="7">
+        <v>2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>6</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>6</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2</v>
+      </c>
+      <c r="O25" s="7">
+        <v>2</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W21" t="s">
-        <v>6</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="W25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="Z25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>47670</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>6</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="G26" s="7">
+        <v>2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>6</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
+      <c r="U26" s="7">
+        <v>0</v>
+      </c>
+      <c r="V26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W22" t="s">
-        <v>6</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="W26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="Z26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>47719</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="G27" s="7">
+        <v>2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>6</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>6</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
         <v>4</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+      <c r="V27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W23" t="s">
-        <v>6</v>
-      </c>
-      <c r="X23" t="s">
+      <c r="W27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="Z27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>49720</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>6</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="G28" s="7">
+        <v>2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>6</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>42685</v>
       </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="G29" s="7">
+        <v>2</v>
+      </c>
+      <c r="H29" s="7">
+        <v>6</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>6</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
         <v>3</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0</v>
+      </c>
+      <c r="U29" s="7">
+        <v>0</v>
+      </c>
+      <c r="V29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W25" t="s">
-        <v>6</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="W29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z25">
+      <c r="Z29" s="7">
         <v>49720</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>43733</v>
       </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="G30" s="7">
+        <v>2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>6</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>2</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2</v>
+      </c>
+      <c r="O30" s="7">
+        <v>2</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W26" t="s">
-        <v>6</v>
-      </c>
-      <c r="X26" t="s">
+      <c r="W30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z26">
+      <c r="Z30" s="7">
         <v>49720</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AA30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>49991</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
         <v>48</v>
       </c>
-      <c r="I27">
+      <c r="I31" s="7">
         <v>18</v>
       </c>
-      <c r="J27">
+      <c r="J31" s="7">
         <v>30</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0</v>
+      </c>
+      <c r="V31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>47605</v>
       </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <v>6</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <v>6</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2</v>
+      </c>
+      <c r="O32" s="7">
+        <v>2</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <v>0</v>
+      </c>
+      <c r="V32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W28" t="s">
-        <v>6</v>
-      </c>
-      <c r="X28" t="s">
+      <c r="W32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Y32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="Z32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>49721</v>
       </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B33" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>6</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>6</v>
+      </c>
+      <c r="I33" s="7">
+        <v>6</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>48839</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7">
+        <v>6</v>
+      </c>
+      <c r="I34" s="7">
+        <v>6</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1</v>
+      </c>
+      <c r="O34" s="7">
+        <v>2</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0</v>
+      </c>
+      <c r="U34" s="7">
+        <v>0</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>49721</v>
+      </c>
+      <c r="AA34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB34" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>47955</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7">
+        <v>6</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>2</v>
+      </c>
+      <c r="O35" s="7">
+        <v>2</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W30" t="s">
-        <v>90</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="W35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>49721</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>48840</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>6</v>
+      </c>
+      <c r="I36" s="7">
+        <v>6</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>3</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0</v>
+      </c>
+      <c r="S36" s="7">
+        <v>0</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0</v>
+      </c>
+      <c r="U36" s="7">
+        <v>0</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="X36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Z30">
+      <c r="Y36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z36" s="7">
         <v>49721</v>
       </c>
-      <c r="AA30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB30" t="s">
+      <c r="AA36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>47955</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="AB36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>40853</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31">
-        <v>6</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7">
+        <v>6</v>
+      </c>
+      <c r="I37" s="7">
+        <v>6</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>3</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+      <c r="S37" s="7">
+        <v>0</v>
+      </c>
+      <c r="T37" s="7">
+        <v>0</v>
+      </c>
+      <c r="U37" s="7">
+        <v>0</v>
+      </c>
+      <c r="V37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W31" t="s">
-        <v>95</v>
-      </c>
-      <c r="X31" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z31">
+      <c r="W37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z37" s="7">
         <v>49721</v>
       </c>
-      <c r="AA31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="AA37" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>48840</v>
-      </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="AB37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>42693</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="I32">
-        <v>6</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7">
+        <v>6</v>
+      </c>
+      <c r="I38" s="7">
+        <v>6</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2</v>
+      </c>
+      <c r="O38" s="7">
+        <v>2</v>
+      </c>
+      <c r="P38" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+      <c r="S38" s="7">
+        <v>0</v>
+      </c>
+      <c r="T38" s="7">
+        <v>0</v>
+      </c>
+      <c r="U38" s="7">
+        <v>0</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>49721</v>
+      </c>
+      <c r="AA38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>48837</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7">
+        <v>6</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>3</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0</v>
+      </c>
+      <c r="U39" s="7">
+        <v>0</v>
+      </c>
+      <c r="V39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W32" t="s">
-        <v>90</v>
-      </c>
-      <c r="X32" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z32">
+      <c r="W39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z39" s="7">
         <v>49721</v>
       </c>
-      <c r="AA32" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="AA39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>40853</v>
-      </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="AB39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>43735</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33">
-        <v>6</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>6</v>
+      </c>
+      <c r="I40" s="7">
+        <v>6</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>3</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33" t="s">
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>2</v>
+      </c>
+      <c r="O40" s="7">
+        <v>2</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="7">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0</v>
+      </c>
+      <c r="U40" s="7">
+        <v>0</v>
+      </c>
+      <c r="V40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W33" t="s">
-        <v>102</v>
-      </c>
-      <c r="X33" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z33">
+      <c r="W40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z40" s="7">
         <v>49721</v>
       </c>
-      <c r="AA33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB33" t="s">
+      <c r="AA40" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>42693</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>6</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>4</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-      <c r="O34">
-        <v>2</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34" t="s">
-        <v>5</v>
-      </c>
-      <c r="W34" t="s">
-        <v>6</v>
-      </c>
-      <c r="X34" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z34">
-        <v>49721</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>48837</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>3</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" t="s">
-        <v>102</v>
-      </c>
-      <c r="X35" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z35">
-        <v>49721</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>43735</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
-      <c r="I36">
-        <v>6</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
-        <v>4</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>2</v>
-      </c>
-      <c r="O36">
-        <v>2</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36" t="s">
-        <v>5</v>
-      </c>
-      <c r="W36" t="s">
-        <v>6</v>
-      </c>
-      <c r="X36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z36">
-        <v>49721</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
+      <c r="AB40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3948,29 +4125,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
